--- a/test/output/封包遺失率比較(regular).xlsx
+++ b/test/output/封包遺失率比較(regular).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BBFAB-4557-4A73-A811-BCACCD3C9548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F907B-3EC6-4AA0-82B6-7891D2F8C7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2280" windowWidth="15690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>E-DSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,7 +37,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal 1000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -212,25 +212,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13089000000000001</c:v>
+                  <c:v>0.13120100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13111100000000001</c:v>
+                  <c:v>0.131025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.130995</c:v>
+                  <c:v>0.131686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13122300000000001</c:v>
+                  <c:v>0.13145000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13117799999999999</c:v>
+                  <c:v>0.13136800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13108700000000001</c:v>
+                  <c:v>0.13128400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13138</c:v>
+                  <c:v>0.13037199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,25 +318,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.106728</c:v>
+                  <c:v>0.104946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.104521</c:v>
+                  <c:v>0.10388799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10326200000000001</c:v>
+                  <c:v>0.103669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.103446</c:v>
+                  <c:v>0.10402699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10281800000000001</c:v>
+                  <c:v>0.101119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.102017</c:v>
+                  <c:v>0.10226200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10111000000000001</c:v>
+                  <c:v>0.10133300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,25 +424,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.7600299999999994E-3</c:v>
+                  <c:v>1.0422300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00968E-2</c:v>
+                  <c:v>9.6486999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0360599999999999E-2</c:v>
+                  <c:v>1.0057399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0066500000000001E-2</c:v>
+                  <c:v>1.0535599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0324399999999999E-2</c:v>
+                  <c:v>1.06076E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00982E-2</c:v>
+                  <c:v>1.0005200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.06535E-2</c:v>
+                  <c:v>9.7510300000000008E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,25 +528,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.8869600000000001E-2</c:v>
+                  <c:v>5.6295499999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1083400000000003E-2</c:v>
+                  <c:v>5.6916300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8291699999999997E-2</c:v>
+                  <c:v>6.1247500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6247899999999993E-2</c:v>
+                  <c:v>6.4077899999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1922400000000006E-2</c:v>
+                  <c:v>7.3405700000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.66949E-2</c:v>
+                  <c:v>8.1175800000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.108698</c:v>
+                  <c:v>8.7278800000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,6 +695,7 @@
         <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -899,6 +900,9 @@
               <c:f>工作表1!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -981,6 +985,9 @@
               <c:f>工作表1!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1063,6 +1070,9 @@
               <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1145,6 +1155,9 @@
               <c:f>工作表1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1354,7 +1367,6 @@
         <c:axId val="355058880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.35000000000000003"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4230,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4276,25 +4288,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.13089000000000001</v>
+        <v>0.13120100000000001</v>
       </c>
       <c r="D2">
-        <v>0.13111100000000001</v>
+        <v>0.131025</v>
       </c>
       <c r="E2">
-        <v>0.130995</v>
+        <v>0.131686</v>
       </c>
       <c r="F2">
-        <v>0.13122300000000001</v>
+        <v>0.13145000000000001</v>
       </c>
       <c r="G2">
-        <v>0.13117799999999999</v>
+        <v>0.13136800000000001</v>
       </c>
       <c r="H2">
-        <v>0.13108700000000001</v>
+        <v>0.13128400000000001</v>
       </c>
       <c r="I2">
-        <v>0.13138</v>
+        <v>0.13037199999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4302,25 +4314,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.106728</v>
+        <v>0.104946</v>
       </c>
       <c r="D3">
-        <v>0.104521</v>
+        <v>0.10388799999999999</v>
       </c>
       <c r="E3">
-        <v>0.10326200000000001</v>
+        <v>0.103669</v>
       </c>
       <c r="F3">
-        <v>0.103446</v>
+        <v>0.10402699999999999</v>
       </c>
       <c r="G3">
-        <v>0.10281800000000001</v>
+        <v>0.101119</v>
       </c>
       <c r="H3">
-        <v>0.102017</v>
+        <v>0.10226200000000001</v>
       </c>
       <c r="I3">
-        <v>0.10111000000000001</v>
+        <v>0.10133300000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4328,25 +4340,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9.7600299999999994E-3</v>
+        <v>1.0422300000000001E-2</v>
       </c>
       <c r="D4">
-        <v>1.00968E-2</v>
+        <v>9.6486999999999996E-3</v>
       </c>
       <c r="E4">
-        <v>1.0360599999999999E-2</v>
+        <v>1.0057399999999999E-2</v>
       </c>
       <c r="F4">
-        <v>1.0066500000000001E-2</v>
+        <v>1.0535599999999999E-2</v>
       </c>
       <c r="G4">
-        <v>1.0324399999999999E-2</v>
+        <v>1.06076E-2</v>
       </c>
       <c r="H4">
-        <v>1.00982E-2</v>
+        <v>1.0005200000000001E-2</v>
       </c>
       <c r="I4">
-        <v>1.06535E-2</v>
+        <v>9.7510300000000008E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4355,25 +4367,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5.8869600000000001E-2</v>
+        <v>5.6295499999999998E-2</v>
       </c>
       <c r="D5">
-        <v>6.1083400000000003E-2</v>
+        <v>5.6916300000000003E-2</v>
       </c>
       <c r="E5">
-        <v>6.8291699999999997E-2</v>
+        <v>6.1247500000000003E-2</v>
       </c>
       <c r="F5">
-        <v>7.6247899999999993E-2</v>
+        <v>6.4077899999999993E-2</v>
       </c>
       <c r="G5">
-        <v>8.1922400000000006E-2</v>
+        <v>7.3405700000000004E-2</v>
       </c>
       <c r="H5">
-        <v>9.66949E-2</v>
+        <v>8.1175800000000006E-2</v>
       </c>
       <c r="I5">
-        <v>0.108698</v>
+        <v>8.7278800000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4403,12 +4415,26 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">

--- a/test/output/封包遺失率比較(regular).xlsx
+++ b/test/output/封包遺失率比較(regular).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F907B-3EC6-4AA0-82B6-7891D2F8C7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCDC2A-100C-4DBC-AA57-3CB2EABE30CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13815" yWindow="3525" windowWidth="14565" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>E-DSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,7 +37,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>normal 1000</t>
+    <t>normal 1400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special 1400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -212,25 +216,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13120100000000001</c:v>
+                  <c:v>0.13094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.131025</c:v>
+                  <c:v>0.1313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.131686</c:v>
+                  <c:v>0.13111999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13145000000000001</c:v>
+                  <c:v>0.13094600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13136800000000001</c:v>
+                  <c:v>0.13139000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13128400000000001</c:v>
+                  <c:v>0.13122800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13037199999999999</c:v>
+                  <c:v>0.13081799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,25 +322,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.104946</c:v>
+                  <c:v>0.105403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10388799999999999</c:v>
+                  <c:v>0.102995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.103669</c:v>
+                  <c:v>0.101853</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10402699999999999</c:v>
+                  <c:v>0.101343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.101119</c:v>
+                  <c:v>0.10141799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10226200000000001</c:v>
+                  <c:v>0.10173599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10133300000000001</c:v>
+                  <c:v>0.10191600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,25 +428,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0422300000000001E-2</c:v>
+                  <c:v>9.4821699999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6486999999999996E-3</c:v>
+                  <c:v>1.03591E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0057399999999999E-2</c:v>
+                  <c:v>1.02959E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0535599999999999E-2</c:v>
+                  <c:v>1.0736000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.06076E-2</c:v>
+                  <c:v>1.0784699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0005200000000001E-2</c:v>
+                  <c:v>1.0401499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7510300000000008E-3</c:v>
+                  <c:v>1.0528300000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,25 +532,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.6295499999999998E-2</c:v>
+                  <c:v>5.8153099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6916300000000003E-2</c:v>
+                  <c:v>5.4925000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1247500000000003E-2</c:v>
+                  <c:v>5.35681E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4077899999999993E-2</c:v>
+                  <c:v>5.2504599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3405700000000004E-2</c:v>
+                  <c:v>5.3048199999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1175800000000006E-2</c:v>
+                  <c:v>5.4497999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7278800000000004E-2</c:v>
+                  <c:v>5.7111599999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,7 +699,6 @@
         <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -967,6 +970,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.128693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12870300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12895599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12889700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12928899999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1052,6 +1076,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.10485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.102699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10069699999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1137,6 +1182,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.7487700000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00182E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5869900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7823200000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0396600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.03125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00917E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1220,6 +1286,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.7203799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6363000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4406700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4859199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5553400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9482500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8359599999999998E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3817,7 +3904,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -3852,10 +3939,10 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4242,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4288,25 +4375,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.13120100000000001</v>
+        <v>0.13094</v>
       </c>
       <c r="D2">
-        <v>0.131025</v>
+        <v>0.1313</v>
       </c>
       <c r="E2">
-        <v>0.131686</v>
+        <v>0.13111999999999999</v>
       </c>
       <c r="F2">
-        <v>0.13145000000000001</v>
+        <v>0.13094600000000001</v>
       </c>
       <c r="G2">
-        <v>0.13136800000000001</v>
+        <v>0.13139000000000001</v>
       </c>
       <c r="H2">
-        <v>0.13128400000000001</v>
+        <v>0.13122800000000001</v>
       </c>
       <c r="I2">
-        <v>0.13037199999999999</v>
+        <v>0.13081799999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4314,25 +4401,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.104946</v>
+        <v>0.105403</v>
       </c>
       <c r="D3">
-        <v>0.10388799999999999</v>
+        <v>0.102995</v>
       </c>
       <c r="E3">
-        <v>0.103669</v>
+        <v>0.101853</v>
       </c>
       <c r="F3">
-        <v>0.10402699999999999</v>
+        <v>0.101343</v>
       </c>
       <c r="G3">
-        <v>0.101119</v>
+        <v>0.10141799999999999</v>
       </c>
       <c r="H3">
-        <v>0.10226200000000001</v>
+        <v>0.10173599999999999</v>
       </c>
       <c r="I3">
-        <v>0.10133300000000001</v>
+        <v>0.10191600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4340,25 +4427,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.0422300000000001E-2</v>
+        <v>9.4821699999999998E-3</v>
       </c>
       <c r="D4">
-        <v>9.6486999999999996E-3</v>
+        <v>1.03591E-2</v>
       </c>
       <c r="E4">
-        <v>1.0057399999999999E-2</v>
+        <v>1.02959E-2</v>
       </c>
       <c r="F4">
-        <v>1.0535599999999999E-2</v>
+        <v>1.0736000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>1.06076E-2</v>
+        <v>1.0784699999999999E-2</v>
       </c>
       <c r="H4">
-        <v>1.0005200000000001E-2</v>
+        <v>1.0401499999999999E-2</v>
       </c>
       <c r="I4">
-        <v>9.7510300000000008E-3</v>
+        <v>1.0528300000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4367,25 +4454,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5.6295499999999998E-2</v>
+        <v>5.8153099999999999E-2</v>
       </c>
       <c r="D5">
-        <v>5.6916300000000003E-2</v>
+        <v>5.4925000000000002E-2</v>
       </c>
       <c r="E5">
-        <v>6.1247500000000003E-2</v>
+        <v>5.35681E-2</v>
       </c>
       <c r="F5">
-        <v>6.4077899999999993E-2</v>
+        <v>5.2504599999999998E-2</v>
       </c>
       <c r="G5">
-        <v>7.3405700000000004E-2</v>
+        <v>5.3048199999999997E-2</v>
       </c>
       <c r="H5">
-        <v>8.1175800000000006E-2</v>
+        <v>5.4497999999999998E-2</v>
       </c>
       <c r="I5">
-        <v>8.7278800000000004E-2</v>
+        <v>5.7111599999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4415,25 +4502,111 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.128693</v>
+      </c>
+      <c r="D8">
+        <v>0.129001</v>
+      </c>
+      <c r="E8">
+        <v>0.129415</v>
+      </c>
+      <c r="F8">
+        <v>0.12870300000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.12895599999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.12889700000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.12928899999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>0.10485</v>
+      </c>
+      <c r="D9">
+        <v>0.104327</v>
+      </c>
+      <c r="E9">
+        <v>0.103002</v>
+      </c>
+      <c r="F9">
+        <v>0.10203</v>
+      </c>
+      <c r="G9">
+        <v>0.102699</v>
+      </c>
+      <c r="H9">
+        <v>0.102019</v>
+      </c>
+      <c r="I9">
+        <v>0.10069699999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
+      </c>
+      <c r="C10">
+        <v>9.7487700000000004E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.00182E-2</v>
+      </c>
+      <c r="E10">
+        <v>9.5869900000000001E-3</v>
+      </c>
+      <c r="F10">
+        <v>9.7823200000000006E-3</v>
+      </c>
+      <c r="G10">
+        <v>1.0396600000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.03125E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.00917E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>4</v>
+      </c>
+      <c r="C11">
+        <v>5.7203799999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.6363000000000003E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.4406700000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>5.4859199999999997E-2</v>
+      </c>
+      <c r="G11">
+        <v>5.5553400000000003E-2</v>
+      </c>
+      <c r="H11">
+        <v>5.9482500000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>5.8359599999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">

--- a/test/output/封包遺失率比較(regular).xlsx
+++ b/test/output/封包遺失率比較(regular).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCDC2A-100C-4DBC-AA57-3CB2EABE30CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="3525" windowWidth="14565" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>E-DSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -25,30 +24,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PACKET LOSS RATE</t>
+    <t>BUFFER 200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Optimal LEACH</t>
+    <t>LEACH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>my</t>
+    <t>BUFFER 300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>normal 1400</t>
+    <t>E-DSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>special 1400</t>
+    <t>NRCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEACH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER 400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-DSR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKET LOSS RATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -121,7 +136,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -216,31 +231,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13094</c:v>
+                  <c:v>9.9215999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1313</c:v>
+                  <c:v>0.105614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13111999999999999</c:v>
+                  <c:v>0.114707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13094600000000001</c:v>
+                  <c:v>0.14003299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13139000000000001</c:v>
+                  <c:v>0.18240799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13122800000000001</c:v>
+                  <c:v>0.21127299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13081799999999999</c:v>
+                  <c:v>0.24284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9EC-4552-976C-2B4C19600BD5}"/>
             </c:ext>
@@ -322,31 +337,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.105403</c:v>
+                  <c:v>9.9103999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.102995</c:v>
+                  <c:v>0.105654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.101853</c:v>
+                  <c:v>0.114687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.101343</c:v>
+                  <c:v>0.13958499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10141799999999999</c:v>
+                  <c:v>0.18240700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10173599999999999</c:v>
+                  <c:v>0.21811700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10191600000000001</c:v>
+                  <c:v>0.24635799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9EC-4552-976C-2B4C19600BD5}"/>
             </c:ext>
@@ -361,7 +376,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
+                  <c:v>LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -428,137 +443,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.4821699999999998E-3</c:v>
+                  <c:v>6.9605799999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.03591E-2</c:v>
+                  <c:v>6.9615300000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02959E-2</c:v>
+                  <c:v>6.9525500000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0736000000000001E-2</c:v>
+                  <c:v>6.9615800000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0784699999999999E-2</c:v>
+                  <c:v>6.9240300000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0401499999999999E-2</c:v>
+                  <c:v>6.9621799999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0528300000000001E-2</c:v>
+                  <c:v>6.9681800000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A9EC-4552-976C-2B4C19600BD5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.8153099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4925000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.35681E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2504599999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3048199999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4497999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7111599999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5ECE-48C7-B4EE-A1B3470AA1C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -622,6 +533,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -699,6 +611,7 @@
         <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000003"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,6 +642,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -809,6 +723,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -876,7 +791,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -971,31 +886,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.128693</c:v>
+                  <c:v>9.9250900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.129001</c:v>
+                  <c:v>9.9432400000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.129415</c:v>
+                  <c:v>9.9435499999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12870300000000001</c:v>
+                  <c:v>0.10224900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12895599999999999</c:v>
+                  <c:v>0.109128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12889700000000001</c:v>
+                  <c:v>0.114195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12928899999999999</c:v>
+                  <c:v>0.12548300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-220B-4259-BE82-65EF202D7B9F}"/>
             </c:ext>
@@ -1077,31 +992,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.10485</c:v>
+                  <c:v>9.9132899999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.104327</c:v>
+                  <c:v>9.9421300000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.103002</c:v>
+                  <c:v>9.9557300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10203</c:v>
+                  <c:v>0.10226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.102699</c:v>
+                  <c:v>0.10900899999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.102019</c:v>
+                  <c:v>0.11453099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10069699999999999</c:v>
+                  <c:v>0.12543399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-220B-4259-BE82-65EF202D7B9F}"/>
             </c:ext>
@@ -1116,7 +1031,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
+                  <c:v>LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1183,137 +1098,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.7487700000000004E-3</c:v>
+                  <c:v>6.9321400000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00182E-2</c:v>
+                  <c:v>7.0058899999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5869900000000001E-3</c:v>
+                  <c:v>6.94274E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7823200000000006E-3</c:v>
+                  <c:v>6.9147299999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0396600000000001E-2</c:v>
+                  <c:v>6.9341700000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.03125E-2</c:v>
+                  <c:v>6.9317100000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.00917E-2</c:v>
+                  <c:v>7.0171999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-220B-4259-BE82-65EF202D7B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.7203799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6363000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4406700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4859199999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5553400000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9482500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8359599999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC4E-485C-B520-B3103E5195BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1377,6 +1188,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1454,6 +1266,7 @@
         <c:axId val="355058880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000003"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1484,6 +1297,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1564,6 +1378,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1631,7 +1446,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1658,6 +1473,9 @@
               <c:f>工作表1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1722,11 +1540,32 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.9131700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9246899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9381300000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9661399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9643499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10065499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.106698</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD14-487D-820B-E080F95F85BB}"/>
             </c:ext>
@@ -1740,6 +1579,9 @@
               <c:f>工作表1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1804,11 +1646,32 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.9285700000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9226700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9533499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9541599999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9632899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10052700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10605100000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DD14-487D-820B-E080F95F85BB}"/>
             </c:ext>
@@ -1822,6 +1685,9 @@
               <c:f>工作表1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LEACH</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1886,11 +1752,32 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9848999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9173999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9872000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9848999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9982000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9279999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9977999999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DD14-487D-820B-E080F95F85BB}"/>
             </c:ext>
@@ -1956,6 +1843,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2064,6 +1952,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2144,6 +2033,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3904,19 +3794,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3939,20 +3823,14 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="圖表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3982,13 +3860,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4082,23 +3954,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4134,23 +3989,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4326,24 +4164,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="9" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1">
         <v>400</v>
@@ -4369,31 +4213,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.13094</v>
+        <v>9.9215999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>0.1313</v>
+        <v>0.105614</v>
       </c>
       <c r="E2">
-        <v>0.13111999999999999</v>
+        <v>0.114707</v>
       </c>
       <c r="F2">
-        <v>0.13094600000000001</v>
+        <v>0.14003299999999999</v>
       </c>
       <c r="G2">
-        <v>0.13139000000000001</v>
+        <v>0.18240799999999999</v>
       </c>
       <c r="H2">
-        <v>0.13122800000000001</v>
+        <v>0.21127299999999999</v>
       </c>
       <c r="I2">
-        <v>0.13081799999999999</v>
+        <v>0.24284</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4401,25 +4245,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.105403</v>
+        <v>9.9103999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>0.102995</v>
+        <v>0.105654</v>
       </c>
       <c r="E3">
-        <v>0.101853</v>
+        <v>0.114687</v>
       </c>
       <c r="F3">
-        <v>0.101343</v>
+        <v>0.13958499999999999</v>
       </c>
       <c r="G3">
-        <v>0.10141799999999999</v>
+        <v>0.18240700000000001</v>
       </c>
       <c r="H3">
-        <v>0.10173599999999999</v>
+        <v>0.21811700000000001</v>
       </c>
       <c r="I3">
-        <v>0.10191600000000001</v>
+        <v>0.24635799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4427,57 +4271,33 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9.4821699999999998E-3</v>
+        <v>6.9605799999999995E-2</v>
       </c>
       <c r="D4">
-        <v>1.03591E-2</v>
+        <v>6.9615300000000005E-2</v>
       </c>
       <c r="E4">
-        <v>1.02959E-2</v>
+        <v>6.9525500000000004E-2</v>
       </c>
       <c r="F4">
-        <v>1.0736000000000001E-2</v>
+        <v>6.9615800000000005E-2</v>
       </c>
       <c r="G4">
-        <v>1.0784699999999999E-2</v>
+        <v>6.9240300000000005E-2</v>
       </c>
       <c r="H4">
-        <v>1.0401499999999999E-2</v>
+        <v>6.9621799999999998E-2</v>
       </c>
       <c r="I4">
-        <v>1.0528300000000001E-2</v>
+        <v>6.9681800000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5.8153099999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.4925000000000002E-2</v>
-      </c>
-      <c r="E5">
-        <v>5.35681E-2</v>
-      </c>
-      <c r="F5">
-        <v>5.2504599999999998E-2</v>
-      </c>
-      <c r="G5">
-        <v>5.3048199999999997E-2</v>
-      </c>
-      <c r="H5">
-        <v>5.4497999999999998E-2</v>
-      </c>
-      <c r="I5">
-        <v>5.7111599999999998E-2</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>400</v>
@@ -4503,115 +4323,91 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0.128693</v>
+        <v>9.9250900000000003E-2</v>
       </c>
       <c r="D8">
-        <v>0.129001</v>
+        <v>9.9432400000000004E-2</v>
       </c>
       <c r="E8">
-        <v>0.129415</v>
+        <v>9.9435499999999996E-2</v>
       </c>
       <c r="F8">
-        <v>0.12870300000000001</v>
+        <v>0.10224900000000001</v>
       </c>
       <c r="G8">
-        <v>0.12895599999999999</v>
+        <v>0.109128</v>
       </c>
       <c r="H8">
-        <v>0.12889700000000001</v>
+        <v>0.114195</v>
       </c>
       <c r="I8">
-        <v>0.12928899999999999</v>
+        <v>0.12548300000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.10485</v>
+        <v>9.9132899999999996E-2</v>
       </c>
       <c r="D9">
-        <v>0.104327</v>
+        <v>9.9421300000000004E-2</v>
       </c>
       <c r="E9">
-        <v>0.103002</v>
+        <v>9.9557300000000001E-2</v>
       </c>
       <c r="F9">
-        <v>0.10203</v>
+        <v>0.10226</v>
       </c>
       <c r="G9">
-        <v>0.102699</v>
+        <v>0.10900899999999999</v>
       </c>
       <c r="H9">
-        <v>0.102019</v>
+        <v>0.11453099999999999</v>
       </c>
       <c r="I9">
-        <v>0.10069699999999999</v>
+        <v>0.12543399999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>9.7487700000000004E-3</v>
+        <v>6.9321400000000005E-2</v>
       </c>
       <c r="D10">
-        <v>1.00182E-2</v>
+        <v>7.0058899999999993E-2</v>
       </c>
       <c r="E10">
-        <v>9.5869900000000001E-3</v>
+        <v>6.94274E-2</v>
       </c>
       <c r="F10">
-        <v>9.7823200000000006E-3</v>
+        <v>6.9147299999999995E-2</v>
       </c>
       <c r="G10">
-        <v>1.0396600000000001E-2</v>
+        <v>6.9341700000000006E-2</v>
       </c>
       <c r="H10">
-        <v>1.03125E-2</v>
+        <v>6.9317100000000006E-2</v>
       </c>
       <c r="I10">
-        <v>1.00917E-2</v>
+        <v>7.0171999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>5.7203799999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>5.6363000000000003E-2</v>
-      </c>
-      <c r="E11">
-        <v>5.4406700000000002E-2</v>
-      </c>
-      <c r="F11">
-        <v>5.4859199999999997E-2</v>
-      </c>
-      <c r="G11">
-        <v>5.5553400000000003E-2</v>
-      </c>
-      <c r="H11">
-        <v>5.9482500000000001E-2</v>
-      </c>
-      <c r="I11">
-        <v>5.8359599999999998E-2</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>400</v>
@@ -4636,7 +4432,85 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>9.9131700000000003E-2</v>
+      </c>
+      <c r="D14">
+        <v>9.9246899999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>9.9381300000000006E-2</v>
+      </c>
+      <c r="F14">
+        <v>9.9661399999999997E-2</v>
+      </c>
+      <c r="G14">
+        <v>9.9643499999999996E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.10065499999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.106698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>9.9285700000000005E-2</v>
+      </c>
+      <c r="D15">
+        <v>9.9226700000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>9.9533499999999997E-2</v>
+      </c>
+      <c r="F15">
+        <v>9.9541599999999994E-2</v>
+      </c>
+      <c r="G15">
+        <v>9.9632899999999996E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.10052700000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.10605100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>6.9848999999999994E-2</v>
+      </c>
+      <c r="D16">
+        <v>6.9173999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>6.9872000000000004E-2</v>
+      </c>
+      <c r="F16">
+        <v>6.9848999999999994E-2</v>
+      </c>
+      <c r="G16">
+        <v>6.9982000000000003E-2</v>
+      </c>
+      <c r="H16">
+        <v>6.9279999999999994E-2</v>
+      </c>
+      <c r="I16">
+        <v>6.9977999999999999E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
